--- a/results/robustness_comparisons.xlsx
+++ b/results/robustness_comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/psid-rs/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF02F4A-65CA-2B4B-B1EA-AD10434B2B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651EC61-57B3-2E4C-9527-13E743DB0DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{DDE537A9-4695-DE4B-8189-D0F58EF225A1}"/>
+    <workbookView xWindow="-3480" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{DDE537A9-4695-DE4B-8189-D0F58EF225A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>Outcome</t>
   </si>
@@ -65,9 +65,6 @@
     <t>2s</t>
   </si>
   <si>
-    <t>AME</t>
-  </si>
-  <si>
     <t>Out-of-Neighborhood</t>
   </si>
   <si>
@@ -104,13 +101,10 @@
     <t>% NHW</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Alternative--involuntary</t>
   </si>
   <si>
-    <t>Consistent</t>
+    <t>No diff B/W, G/NG</t>
   </si>
   <si>
     <t>No diff BG/B-NG, BG/NB-G</t>
@@ -191,22 +185,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Consistent except </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IQ4 finding only holds in Bust period</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">No diff B/W, G/NG </t>
     </r>
     <r>
@@ -222,17 +200,136 @@
     </r>
   </si>
   <si>
-    <t>Consistent; coeffs not produced for IQ4 BG in Post-Recovery period</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No diff G/NG; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG W &gt; NG B for IQ 1-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No diff G/NG; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W &gt; B in IQ 1&amp;4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same except </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IQ4 finding only holds in Bust period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same except </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coeffs not produced for IQ4 BG in Post-Recovery period</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg. Pred. Probs.</t>
+  </si>
+  <si>
+    <t>NG W &gt; NG B for IQ 1-3; G &gt; NG for B, IQ1-2</t>
+  </si>
+  <si>
+    <t>No diff B-G/B-NG, BG/NB-G</t>
+  </si>
+  <si>
+    <t>B-G &lt; B-NG and NG-B for IQ4</t>
+  </si>
+  <si>
+    <t>B in IQ1 &lt; W between -2 and 1/2; no diff between 0 and 1/2; No B/W diff except in IQ4 where W &gt; b</t>
+  </si>
+  <si>
+    <t>B/W diff at every level; for B respondents, no sig dif moving from -ve to +ve values</t>
+  </si>
+  <si>
+    <t>Same--no G/NG diff; W &gt; B from -2 to no change in IQ1-3</t>
+  </si>
+  <si>
+    <t>Same -- B/W diff at every level, every IQ but no diff moving from -2 to 2</t>
+  </si>
+  <si>
+    <t>No B/W diff or diff moving from -4 to 4</t>
+  </si>
+  <si>
+    <t>W &gt; B from -6 to 2 for IQ1&amp;3 but only from -6 to 0 for IQ2</t>
+  </si>
+  <si>
+    <t>No B/W or G/NG diff</t>
+  </si>
+  <si>
+    <t>No G/NG diff, W &gt; B in NG IQ4</t>
+  </si>
+  <si>
+    <t>No diff G/NG; NG W &gt; NG B for IQ 3 only</t>
+  </si>
+  <si>
+    <t>B/W diff in IQ3 G not sig</t>
+  </si>
+  <si>
+    <t>B-G &gt; B-NG IQ1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,6 +343,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -273,18 +386,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +728,8 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,16 +738,19 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="16" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -631,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -646,37 +776,37 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -687,37 +817,55 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -725,34 +873,52 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -763,28 +929,49 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
+      <c r="M5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -795,156 +982,273 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
